--- a/Excel/nopCusData.xlsx
+++ b/Excel/nopCusData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fardi\PycharmProjects\nopCommerce_hybrid_framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF3D9FC-6FA2-46EF-8F11-E361A6FF941D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55AA22A-7983-4A89-BC3D-0E74D8C37B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11505" xr2:uid="{C00EC604-519A-4E01-A11C-9CF4FBD28A31}"/>
   </bookViews>
@@ -45,22 +45,22 @@
     <t>admincomment</t>
   </si>
   <si>
-    <t>john11@#AB</t>
-  </si>
-  <si>
-    <t>Doe International</t>
-  </si>
-  <si>
     <t>Level 2 Clearence</t>
   </si>
   <si>
-    <t>Sakib</t>
-  </si>
-  <si>
-    <t>Al Hasan</t>
-  </si>
-  <si>
-    <t>sorry@testingpurpose.com</t>
+    <t>rihan@gmail.com</t>
+  </si>
+  <si>
+    <t>12q2swqdq</t>
+  </si>
+  <si>
+    <t>Raihan</t>
+  </si>
+  <si>
+    <t>Pradip</t>
+  </si>
+  <si>
+    <t>Pradib XERT</t>
   </si>
 </sst>
 </file>
@@ -433,12 +433,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -463,10 +464,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -475,16 +476,16 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{F000627A-4D49-44F4-AFA5-6410B9DEE76C}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{647FA59E-08B8-4F6D-B51D-50291AC42459}"/>
+    <hyperlink ref="B2" r:id="rId2" display="john11@#AB" xr:uid="{647FA59E-08B8-4F6D-B51D-50291AC42459}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/nopCusData.xlsx
+++ b/Excel/nopCusData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fardi\PycharmProjects\nopCommerce_hybrid_framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C55AA22A-7983-4A89-BC3D-0E74D8C37B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7103056-8BF0-414D-BAA2-9B64599B5731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11505" xr2:uid="{C00EC604-519A-4E01-A11C-9CF4FBD28A31}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Level 2 Clearence</t>
   </si>
   <si>
-    <t>rihan@gmail.com</t>
-  </si>
-  <si>
     <t>12q2swqdq</t>
   </si>
   <si>
@@ -61,6 +58,9 @@
   </si>
   <si>
     <t>Pradib XERT</t>
+  </si>
+  <si>
+    <t>rihasn@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,19 +464,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>

--- a/Excel/nopCusData.xlsx
+++ b/Excel/nopCusData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fardi\PycharmProjects\nopCommerce_hybrid_framwork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7103056-8BF0-414D-BAA2-9B64599B5731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C937FA0-80E8-449D-85B9-B080B5EB1402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11505" xr2:uid="{C00EC604-519A-4E01-A11C-9CF4FBD28A31}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <t>Pradib XERT</t>
   </si>
   <si>
-    <t>rihasn@gmail.com</t>
+    <t>terio@gmail.com</t>
   </si>
 </sst>
 </file>
